--- a/data-raw/desc_fontes_de_recursos.xlsx
+++ b/data-raw/desc_fontes_de_recursos.xlsx
@@ -2082,7 +2082,7 @@
     </lcf76f155ced4ddcb4097134ff3c332f>
     <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
       <UserInfo>
-        <DisplayName>Sofia Chacon Furletti</DisplayName>
+        <DisplayName>Sofia Chacon Furletti (SEPLAG)</DisplayName>
         <AccountId>70</AccountId>
         <AccountType/>
       </UserInfo>
@@ -2102,14 +2102,13 @@
         <AccountType/>
       </UserInfo>
     </SharedWithUsers>
-    <MediaLengthInSeconds xmlns="6f4338ef-addb-4c87-aefe-1895241b335f" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="17" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="c170a06b81d8b923cbfe6a63de8ee1c9">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="844dfdedaab7989660d9d802f918fcda" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -2134,6 +2133,7 @@
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2213,6 +2213,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="24" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:description="" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -2370,7 +2375,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52CDA29A-F376-499E-8BAD-6ECB22AC27B3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDEC2A2-8B09-47E6-B919-847235EF83F9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>

--- a/data-raw/desc_fontes_de_recursos.xlsx
+++ b/data-raw/desc_fontes_de_recursos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1529042\Desktop\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="42" documentId="11_7BE0024B6A9D680D449A6D16C67FAB0C309AF390" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{24ED2985-FE84-4041-BD89-A7BFFCF1571B}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_7BE0024B6A9D680D449A6D16C67FAB0C309AF390" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4513E470-862C-4940-AC7F-E8625CA6FC9C}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -516,10 +516,10 @@
     <t xml:space="preserve">RECURSOS ADVINDOS DE CONTRIBUIÇÃO PATRONAL, VINCULADOS AO PAGAMENTO DOS BENEFÍCIOS CONCEDIDOS NA FORMA DO ART. 3º DA LEI COMPLEMENTAR Nº 132/2014. </t>
   </si>
   <si>
-    <t>CONTRIBUIÇÃO DO SERVIDOR PARA O FUNPREV</t>
-  </si>
-  <si>
-    <t>RECURSOS ADVINDOS DE CONTRIBUIÇÃO DO SERVIDOR, VINCULADOS AO PAGAMENTO DOS BENEFÍCIOS CONCEDIDOS NA FORMA DO ART. 3º DA LEI COMPLEMENTAR Nº 132/2014.</t>
+    <t>RECURSOS DO ACORDO DE REPACTUAÇÃO DO RIO DOCE</t>
+  </si>
+  <si>
+    <t>RECURSOS PROVENIENTES DO ACORDO JUDICIAL DE REPARAÇÃO INTEGRAL E DEFINITIVA RELATIVA AO ROMPIMENTO DA BARRAGEM DE FUNDÃO EM MARIANA.</t>
   </si>
   <si>
     <t>RECURSOS DE DEPÓSITOS JUDICIAIS - LEI 21.720/15 E LC FEDERAL 151/15</t>
@@ -576,10 +576,10 @@
     <t>RECURSOS PROVENIENTES DA OPERAÇÃO DE SECURITIZAÇÃO DOS ATIVOS DO FUNDO ESPECIAL DE CRÉDITOS INADIMPLIDOS E DÍVIDA ATIVA - FECIDAT, CONFORME ESTABELECIDO NO INCISO II, ARTIGO 34 DA LEI 22.606 DE 20 DE JULHO DE 2017.</t>
   </si>
   <si>
-    <t>RECURSOS DECORRENTES DA COBRANÇA DOS CRÉDITOS INADIMPLIDOS INSCRITOS - LEI 22.606/2017</t>
-  </si>
-  <si>
-    <t>RECURSOS PROVENIENTES DOS CRÉDITOS INADIMPLIDOS INSCRITOS EM DÍVIDA ATIVA OU NÃO, DE NATUREZA TRIBUTÁRIA OU NÃO, QUE ESTEJAM COM PARCELAMENTO EM VIGOR OU NÃO, QUE NÃO ESTEJAM COM EXIGIBILIDADE SUSPENSA E NEM TENHAM SIDO CEDIDOS A MINAS GERAIS PARTICIPAÇÕES S.A. – MGI – INCISO I, ARTIGO 34 DA LEI 22.606/2017.</t>
+    <t>TRANSFERÊNCIAS DO FUNDEB - COMPLEMENTAÇÃO DA UNIÃO - VAAR</t>
+  </si>
+  <si>
+    <t>CONTROLE DOS RECURSOS DE COMPLEMENTAÇÃO DA UNIÃO AO FUNDEB - VAAR, COM BASE NA ALÍNEA C, INCISO V DO ART. 212-A DA CONSTITUIÇÃO FEDERAL.</t>
   </si>
   <si>
     <t>TAXA DE EXPEDIENTE - ADMINISTRAÇÃO INDIRETA</t>
@@ -618,16 +618,16 @@
     <t>RECURSOS PROVENIENTES DA DISTRIBUIÇÃO DOS VALORES ARRECADADOS COM OS LEILÕES DOS VOLUMES EXCEDENTES AO LIMITE A QUE SE REFERE O § 2º DO ART. 1º DA LEI Nº 12.276, DE 30 DE JUNHO DE 2010, AUTORIZADA PELA LEI 13.885 DE 17 DE OUTUBRO DE 2019. OS VALORES SÃO PAGOS A TÍTULO DE BÔNUS DE ASSINATURA PELA EXPLORAÇÃO DO EXCEDENTE DA CESSÃO ONEROSA DO PRÉ-SAL.</t>
   </si>
   <si>
+    <t>TRANSFERÊNCIAS ESPECIAIS DE RECURSOS DA UNIÃO - RECURSOS RECEBIDOS ATÉ 2023</t>
+  </si>
+  <si>
+    <t>RECURSOS TRANSFERIDOS PELA UNIÃO NA FORMA ESTABELECIDA NO INCISO I DO ART.166-A DA CONSTITUIÇÃO DA REPÚBLICA FEDERATIVA DO BRASIL DE 1988. REFERE-SE AOS RECURSOS TRANSFERIDOS PELA UNIÃO AO ESTADO ATÉ O FINAL DO EXERCÍCIO FINANCEIRO DE 2023, BEM COMO A SUAS RESPECTIVAS RESTITUIÇÕES E REMUNERAÇÕES DE DEPÓSITOS BANCÁRIOS, AINDA QUE REGISTRADAS EM EXERCÍCIOS FINANCEIROS POSTERIORES.</t>
+  </si>
+  <si>
     <t>TRANSFERÊNCIAS ESPECIAIS DE RECURSOS DA UNIÃO</t>
   </si>
   <si>
-    <t>RECURSOS TRANSFERIDOS PELA UNIÃO NA FORMA ESTABELECIDA NOS §§ 1º, 2º,3º E 5º DO ART.166-A DA CONSTITUIÇÃO DA REPÚBLICA FEDERATIVA DO BRASIL DE 1988.</t>
-  </si>
-  <si>
-    <t>CONTRIBUIÇÃO MILITAR PARA CUSTEIO DO BENEFÍCIO DE ASSISTÊNCIA À SAÚDE DOS MILITARES E DEPENDENTES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CONTRIBUIÇÃO DESTINADA AO CUSTEIO DO BENEFÍCIO DE ASSISTÊNCIA À SAÚDE DOS MILITARES DA ATIVA, INATIVOS E JUIZ MILITAR DO TRIBUNAL DE JUSTIÇA MILITAR DO ESTADO DE MINAS GERAIS, RESPECTIVOS PENSIONISTAS E DEPENDENTES. </t>
+    <t>RECURSOS TRANSFERIDOS PELA UNIÃO NA FORMA ESTABELECIDA NO INCISO I DO ART.166-A DA CONSTITUIÇÃO DA REPÚBLICA FEDERATIVA DO BRASIL DE 1988. REFERE-SE AOS RECURSOS TRANSFERIDOS PELA UNIÃO AO ESTADO A PARTIR DO EXERCÍCIO FINANCEIRO DE 2024, BEM COMO A SUAS RESPECTIVAS RESTITUIÇÕES E REMUNERAÇÕES DE DEPÓSITOS BANCÁRIOS.</t>
   </si>
   <si>
     <t>AUXÍLIO FINANCEIRO RECEBIDO DA UNIÃO PARA APLICAÇÃO EM AÇÕES DE ENFRENTAMENTO À COVID 19</t>
@@ -959,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C100"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.42578125" defaultRowHeight="15"/>
@@ -2074,36 +2074,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
-      <UserInfo>
-        <DisplayName>Sofia Chacon Furletti (SEPLAG)</DisplayName>
-        <AccountId>70</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Rodolfo Pinhón Bechtlufft (SEPLAG)</DisplayName>
-        <AccountId>38</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carlos Henrique de Oliveira Brochado (SEPLAG)</DisplayName>
-        <AccountId>49</AccountId>
-        <AccountType/>
-      </UserInfo>
-      <UserInfo>
-        <DisplayName>Carolina Fonseca Moreira (SEPLAG)</DisplayName>
-        <AccountId>13</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2362,16 +2338,40 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="6f4338ef-addb-4c87-aefe-1895241b335f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <SharedWithUsers xmlns="b91e7f20-fe0a-487d-91a9-605ac1c64acf">
+      <UserInfo>
+        <DisplayName>Sofia Chacon Furletti (SEPLAG)</DisplayName>
+        <AccountId>70</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Rodolfo Pinhón Bechtlufft (SEPLAG)</DisplayName>
+        <AccountId>38</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carlos Henrique de Oliveira Brochado (SEPLAG)</DisplayName>
+        <AccountId>49</AccountId>
+        <AccountType/>
+      </UserInfo>
+      <UserInfo>
+        <DisplayName>Carolina Fonseca Moreira (SEPLAG)</DisplayName>
+        <AccountId>13</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{741C4EED-4E68-4D13-8A53-EE95607C61BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52695D42-7905-4355-AFA3-D66DFF9609E9}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2379,5 +2379,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52695D42-7905-4355-AFA3-D66DFF9609E9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{741C4EED-4E68-4D13-8A53-EE95607C61BA}"/>
 </file>
--- a/data-raw/desc_fontes_de_recursos.xlsx
+++ b/data-raw/desc_fontes_de_recursos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28318"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1529042\Desktop\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m753205\Desktop\99 TABELAS APOIO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_7BE0024B6A9D680D449A6D16C67FAB0C309AF390" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4513E470-862C-4940-AC7F-E8625CA6FC9C}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_50E8B19B325462AB430540D226A1CE6240D7173E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{918EBDB3-B38F-4D91-B10C-BC2CD208FFA2}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="8400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19350" windowHeight="7965" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -570,10 +570,10 @@
     <t>RECURSOS TRANSFERIDOS EXCLUSIVAMENTE PARA A REALIZAÇÃO DE DESPESAS DE CAPITAL, MEDIANTE APRESENTAÇÃO DE PROJETOS, ENCAMINHADO PELO ENTE FEDERATIVO INTERESSADO AO MINISTÉRIO DA SAÚDE, CONFORME DISPÕE A PORTARIA N° 204/GM/MS, DE 29/01/2007.</t>
   </si>
   <si>
-    <t>RECURSOS DECORRENTES DA OPERAÇÃO DE SECURITIZAÇÃO DOS ATIVOS DO FECIDAT</t>
-  </si>
-  <si>
-    <t>RECURSOS PROVENIENTES DA OPERAÇÃO DE SECURITIZAÇÃO DOS ATIVOS DO FUNDO ESPECIAL DE CRÉDITOS INADIMPLIDOS E DÍVIDA ATIVA - FECIDAT, CONFORME ESTABELECIDO NO INCISO II, ARTIGO 34 DA LEI 22.606 DE 20 DE JULHO DE 2017.</t>
+    <t xml:space="preserve">RECURSOS DO FUNDO DE EQUALIZAÇÃO FEDERATIVA – FEF </t>
+  </si>
+  <si>
+    <t>RECURSOS TRANSFERIDOS PELO FUNDO DE EQUALIZAÇÃO FEDERATIVA PARA APLICAÇÃO EM INVESTIMENTOS, CONFORME ART. 9° §2° DA LC N° 212/2025.</t>
   </si>
   <si>
     <t>TRANSFERÊNCIAS DO FUNDEB - COMPLEMENTAÇÃO DA UNIÃO - VAAR</t>
@@ -640,10 +640,17 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -669,13 +676,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -959,220 +967,220 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="XEZ1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="55.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.7109375" customWidth="1"/>
-    <col min="3" max="3" width="61" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.7109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="61" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C19" s="2" t="s">
@@ -1180,10 +1188,10 @@
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="2" t="s">
@@ -1191,879 +1199,879 @@
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33">
+      <c r="A33" s="1">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34">
+      <c r="A34" s="1">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35">
+      <c r="A35" s="1">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="1" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36">
+      <c r="A36" s="1">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="1" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37">
+      <c r="A37" s="1">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38">
+      <c r="A38" s="1">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="1" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39">
+      <c r="A39" s="1">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="1" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40">
+      <c r="A40" s="1">
         <v>39</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41">
+      <c r="A41" s="1">
         <v>40</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42">
+      <c r="A42" s="1">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43">
+      <c r="A43" s="1">
         <v>42</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44">
+      <c r="A44" s="1">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="1" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45">
+      <c r="A45" s="1">
         <v>44</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="1" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46">
+      <c r="A46" s="1">
         <v>45</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="A47" s="1">
         <v>46</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="1" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="A48" s="1">
         <v>47</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="1" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="A49" s="1">
         <v>48</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="1" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="A50" s="1">
         <v>49</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="1" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51">
+      <c r="A51" s="1">
         <v>50</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="1" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52">
+      <c r="A52" s="1">
         <v>51</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="1" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53">
+      <c r="A53" s="1">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="1" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54">
+      <c r="A54" s="1">
         <v>53</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="1" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55">
+      <c r="A55" s="1">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="1" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56">
+      <c r="A56" s="1">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="1" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57">
+      <c r="A57" s="1">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="1" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58">
+      <c r="A58" s="1">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="1" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59">
+      <c r="A59" s="1">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="1" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60">
+      <c r="A60" s="1">
         <v>59</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="1" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61">
+      <c r="A61" s="1">
         <v>60</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="1" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62">
+      <c r="A62" s="1">
         <v>61</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="1" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63">
+      <c r="A63" s="1">
         <v>62</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64">
+      <c r="A64" s="1">
         <v>63</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="1" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65">
+      <c r="A65" s="1">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="1" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66">
+      <c r="A66" s="1">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="1" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67">
+      <c r="A67" s="1">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68">
+      <c r="A68" s="1">
         <v>67</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="1" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69">
+      <c r="A69" s="1">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="1" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70">
+      <c r="A70" s="1">
         <v>69</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="1" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71">
+      <c r="A71" s="1">
         <v>70</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="1" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72">
+      <c r="A72" s="1">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="1" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73">
+      <c r="A73" s="1">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="1" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74">
+      <c r="A74" s="1">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="1" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75">
+      <c r="A75" s="1">
         <v>74</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="1" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76">
+      <c r="A76" s="1">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="1" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77">
+      <c r="A77" s="1">
         <v>76</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="1" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78">
+      <c r="A78" s="1">
         <v>77</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="1" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79">
+      <c r="A79" s="1">
         <v>78</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="1" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80">
+      <c r="A80" s="1">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="1" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81">
+      <c r="A81" s="1">
         <v>80</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="1" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82">
+      <c r="A82" s="1">
         <v>81</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="1" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83">
+      <c r="A83" s="1">
         <v>82</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="1" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84">
+      <c r="A84" s="1">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="1" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85">
+      <c r="A85" s="1">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="1" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86">
+      <c r="A86" s="1">
         <v>85</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87">
+      <c r="A87" s="1">
         <v>86</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="1" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88">
+      <c r="A88" s="1">
         <v>87</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="1" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89">
+      <c r="A89" s="1">
         <v>88</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="1" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90">
+      <c r="A90" s="1">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="1" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91">
+      <c r="A91" s="1">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="1" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92">
+      <c r="A92" s="1">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93">
+      <c r="A93" s="1">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="1" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94">
+      <c r="A94" s="1">
         <v>93</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="1" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95">
+      <c r="A95" s="1">
         <v>94</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="96" spans="1:3">
-      <c r="A96">
+      <c r="A96" s="1">
         <v>95</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="1" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97">
+      <c r="A97" s="1">
         <v>96</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="1" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98">
+      <c r="A98" s="1">
         <v>97</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="1" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="99" spans="1:3">
-      <c r="A99">
+      <c r="A99" s="1">
         <v>98</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="1" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100">
+      <c r="A100" s="1">
         <v>99</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="1" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2083,8 +2091,8 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="18" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="1b889f39a240c2e855286b20cf95d05e">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="902f44b668f40cdc6ccc2fe791adf365" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100B08D58FADB61F04EBBB4F355C06EFBED" ma:contentTypeVersion="19" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="7797dc5feb179b4da55a9ebddd321181">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6f4338ef-addb-4c87-aefe-1895241b335f" xmlns:ns3="b91e7f20-fe0a-487d-91a9-605ac1c64acf" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="90078f443198b6d5c0fd169535a443b9" ns2:_="" ns3:_="">
     <xsd:import namespace="6f4338ef-addb-4c87-aefe-1895241b335f"/>
     <xsd:import namespace="b91e7f20-fe0a-487d-91a9-605ac1c64acf"/>
     <xsd:element name="properties">
@@ -2110,6 +2118,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceBillingMetadata" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -2192,6 +2201,11 @@
       </xsd:simpleType>
     </xsd:element>
     <xsd:element name="MediaServiceSearchProperties" ma:index="25" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceBillingMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceBillingMetadata" ma:hidden="true" ma:internalName="MediaServiceBillingMetadata" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
@@ -2375,7 +2389,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBDEC2A2-8B09-47E6-B919-847235EF83F9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC3FA630-D18C-4B56-A359-9CD6CF90D85A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
